--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.nutshell-news/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21EB6AB-C49B-4411-A8C9-D78719918875}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="166">
   <si>
     <t>Section</t>
   </si>
@@ -520,6 +521,21 @@
   </si>
   <si>
     <t>SubheaderName</t>
+  </si>
+  <si>
+    <t>11/4/2021</t>
+  </si>
+  <si>
+    <t>11/3/2021</t>
+  </si>
+  <si>
+    <t>1/1/2021</t>
+  </si>
+  <si>
+    <t>CategoryPriority</t>
+  </si>
+  <si>
+    <t>PostUpDate</t>
   </si>
 </sst>
 </file>
@@ -570,12 +586,147 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -584,7 +735,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -592,6 +743,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -908,2204 +1068,2621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="5" customWidth="1"/>
-    <col min="4" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
+    <col min="5" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>155</v>
+      <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f>"11/4/2021"</f>
         <v>11/4/2021</v>
       </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="str">
+      <c r="N2" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <f>"11/3/2021"</f>
         <v>11/3/2021</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K54" si="0">"1/1/2021"</f>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N54" si="0">"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D14" si="1">"11/3/2021"</f>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F14" si="1">"11/3/2021"</f>
         <v>11/3/2021</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>41</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>41</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>43</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" s="3">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="3">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11/3/2021</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="3">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>47</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L14" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <f>"7/28/2020"</f>
         <v>7/28/2020</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="str">
         <f>"7/28/2020"</f>
         <v>7/28/2020</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
         <v>49</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" ref="C16:D29" si="2">"7/28/2020"</f>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" ref="D16:F29" si="2">"7/28/2020"</f>
         <v>7/28/2020</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
         <v>49</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>52</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
         <v>12</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
         <v>49</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>54</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
         <v>55</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>56</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" s="3">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>59</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>60</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>62</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
         <v>63</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
         <v>64</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
         <v>66</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>68</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>69</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
         <v>70</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
         <v>58</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>71</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
         <v>63</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
         <v>72</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" s="3">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
         <v>73</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>74</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
         <v>63</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
         <v>75</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
         <v>76</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>77</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>79</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>80</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>83</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>85</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
         <v>82</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>86</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
         <v>84</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
         <v>87</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
         <v>82</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>88</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" s="3">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
         <v>84</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>89</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
         <v>82</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>90</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
         <v>91</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>92</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="str">
         <f>"7/29/2020"</f>
         <v>7/29/2020</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="str">
         <f>"7/29/2020"</f>
         <v>7/29/2020</v>
       </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
         <v>49</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
         <v>93</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>12</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>94</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="5" t="str">
-        <f t="shared" ref="C31:D41" si="3">"7/29/2020"</f>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" ref="D31:F41" si="3">"7/29/2020"</f>
         <v>7/29/2020</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
         <v>49</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>95</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
         <v>96</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>97</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
         <v>49</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>98</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
         <v>99</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M32" t="s">
         <v>100</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E33" s="6">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
         <v>63</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
         <v>101</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
         <v>96</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>102</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
         <v>63</v>
       </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
         <v>103</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>104</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
         <v>63</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
         <v>105</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" s="3">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
         <v>106</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>107</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E36" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
         <v>78</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>108</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>80</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>109</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E37" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
         <v>78</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>110</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
         <v>111</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>112</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="5" t="str">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E38" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
         <v>82</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>113</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
         <v>114</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
         <v>115</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E39" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
         <v>82</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>116</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
         <v>68</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
         <v>117</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E40" s="6">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
         <v>82</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>118</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
         <v>68</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
         <v>119</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L40" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="str">
         <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
-      <c r="E41" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
         <v>82</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" s="3">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
         <v>84</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>121</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="str">
         <f>"10/21/2021"</f>
         <v>10/21/2021</v>
       </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
         <v>124</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
         <v>125</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>126</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>127</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" ref="D43:D46" si="4">"10/21/2021"</f>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" ref="F43:F46" si="4">"10/21/2021"</f>
         <v>10/21/2021</v>
       </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
         <v>124</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>128</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
         <v>126</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>129</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10/21/2021</v>
       </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
         <v>124</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
         <v>130</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
         <v>131</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>129</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10/21/2021</v>
       </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
         <v>132</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
         <v>133</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
         <v>126</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
         <v>134</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10/21/2021</v>
       </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
         <v>132</v>
       </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
         <v>135</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
         <v>126</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>129</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
         <v>132</v>
       </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
         <v>136</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
         <v>137</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
         <v>138</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L47" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
         <v>132</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
         <v>139</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" s="3">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
         <v>140</v>
       </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
         <v>141</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
         <v>142</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>143</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
         <v>144</v>
       </c>
-      <c r="J49" t="s">
+      <c r="M49" t="s">
         <v>145</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f t="shared" ref="D50" si="5">"10/21/2021"</f>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" ref="F50" si="5">"10/21/2021"</f>
         <v>10/21/2021</v>
       </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
         <v>142</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>146</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
         <v>140</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>141</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L50" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" ref="D51" si="6">"10/21/2021"</f>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" ref="F51" si="6">"10/21/2021"</f>
         <v>10/21/2021</v>
       </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
         <v>142</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>147</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" s="3">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
         <v>144</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
         <v>148</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L51" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
         <v>149</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>150</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
         <v>151</v>
       </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
         <v>152</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
         <v>149</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>153</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
         <v>151</v>
       </c>
-      <c r="J53" t="s">
+      <c r="M53" t="s">
         <v>152</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L53" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="str">
         <f>"10/24/2021"</f>
         <v>10/24/2021</v>
       </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
         <v>149</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>154</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" s="3">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
         <v>151</v>
       </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
         <v>152</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3</v>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K54" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}"/>
+  <autoFilter ref="A1:O54" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CAAA3D-C55D-40CC-9C5B-40CC12880C07}">
+  <dimension ref="C2:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.nutshell-news/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21EB6AB-C49B-4411-A8C9-D78719918875}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBB27919-6E8D-45D6-8B5F-914EF8E97643}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>149</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>150</v>
@@ -3419,7 +3419,7 @@
         <v>149</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
         <v>153</v>
@@ -3463,7 +3463,7 @@
         <v>149</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
         <v>154</v>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.nutshell-news/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBB27919-6E8D-45D6-8B5F-914EF8E97643}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBFA10CE-9979-4480-9FA9-FDFB87BA9E3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="168">
   <si>
     <t>Section</t>
   </si>
@@ -229,9 +229,6 @@
     <t>https://www.reuters.com/investigates/special-report/usa-riteaid-software/</t>
   </si>
   <si>
-    <t>International News</t>
-  </si>
-  <si>
     <t>How countries are re-opening schools</t>
   </si>
   <si>
@@ -536,6 +533,15 @@
   </si>
   <si>
     <t>PostUpDate</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>7-28-2020</t>
+  </si>
+  <si>
+    <t>7-29-2020</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -752,6 +758,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1070,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,25 +1097,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1123,10 +1130,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1705,9 +1712,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="str">
-        <f>"7/28/2020"</f>
-        <v>7/28/2020</v>
+      <c r="D15" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1750,15 +1756,14 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="str">
         <f t="shared" ref="D16:F29" si="2">"7/28/2020"</f>
-        <v>7/28/2020</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7/28/2020</v>
       </c>
       <c r="G16" s="2"/>
@@ -1795,9 +1800,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D17" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -1840,9 +1844,8 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D18" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -1885,9 +1888,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D19" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1930,9 +1932,8 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D20" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -1943,22 +1944,22 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
         <v>63</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>65</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
@@ -1975,9 +1976,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D21" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1988,22 +1988,22 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>68</v>
-      </c>
-      <c r="M21" t="s">
-        <v>69</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
@@ -2020,9 +2020,8 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D22" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -2033,13 +2032,13 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22" s="3">
         <v>3</v>
@@ -2048,7 +2047,7 @@
         <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -2065,9 +2064,8 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D23" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -2078,22 +2076,22 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="3">
         <v>4</v>
       </c>
       <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
         <v>73</v>
-      </c>
-      <c r="M23" t="s">
-        <v>74</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -2110,9 +2108,8 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D24" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -2123,22 +2120,22 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="3">
         <v>5</v>
       </c>
       <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
         <v>76</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
@@ -2155,9 +2152,8 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D25" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -2168,22 +2164,22 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>80</v>
-      </c>
-      <c r="M25" t="s">
-        <v>81</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
@@ -2200,9 +2196,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D26" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -2213,22 +2208,22 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>4</v>
       </c>
       <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>84</v>
-      </c>
-      <c r="M26" t="s">
-        <v>85</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -2245,9 +2240,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D27" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -2258,22 +2252,22 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>4</v>
       </c>
       <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" t="s">
         <v>86</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" t="s">
-        <v>87</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -2290,9 +2284,8 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D28" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2303,22 +2296,22 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="3">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
@@ -2335,9 +2328,8 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="D29" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2348,22 +2340,22 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="3">
         <v>4</v>
       </c>
       <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" t="s">
         <v>91</v>
-      </c>
-      <c r="M29" t="s">
-        <v>92</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
@@ -2380,9 +2372,8 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="str">
-        <f>"7/29/2020"</f>
-        <v>7/29/2020</v>
+      <c r="D30" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -2399,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -2408,7 +2399,7 @@
         <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -2425,15 +2416,14 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="str">
         <f t="shared" ref="D31:F41" si="3">"7/29/2020"</f>
-        <v>7/29/2020</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>7/29/2020</v>
       </c>
       <c r="G31" s="2"/>
@@ -2444,16 +2434,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="3">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>96</v>
-      </c>
-      <c r="M31" t="s">
-        <v>97</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -2470,9 +2460,8 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D32" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
@@ -2489,16 +2478,16 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" t="s">
         <v>99</v>
-      </c>
-      <c r="M32" t="s">
-        <v>100</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
@@ -2515,9 +2504,8 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D33" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
@@ -2528,22 +2516,22 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" t="s">
         <v>101</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" t="s">
-        <v>102</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
@@ -2560,9 +2548,8 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D34" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
@@ -2573,22 +2560,22 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" t="s">
         <v>103</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" t="s">
-        <v>104</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
@@ -2605,9 +2592,8 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D35" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
@@ -2618,22 +2604,22 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K35" s="3">
         <v>3</v>
       </c>
       <c r="L35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" t="s">
         <v>106</v>
-      </c>
-      <c r="M35" t="s">
-        <v>107</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="0"/>
@@ -2650,9 +2636,8 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D36" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
@@ -2663,22 +2648,22 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" t="s">
         <v>108</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" t="s">
-        <v>109</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="0"/>
@@ -2695,9 +2680,8 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D37" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
@@ -2708,22 +2692,22 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="3">
-        <v>2</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>111</v>
-      </c>
-      <c r="M37" t="s">
-        <v>112</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
@@ -2740,9 +2724,8 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D38" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
@@ -2753,22 +2736,22 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
         <v>113</v>
       </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>114</v>
-      </c>
-      <c r="M38" t="s">
-        <v>115</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
@@ -2785,9 +2768,8 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D39" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
@@ -2798,22 +2780,22 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>4</v>
       </c>
       <c r="J39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="s">
         <v>116</v>
-      </c>
-      <c r="K39" s="3">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" t="s">
-        <v>117</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
@@ -2830,9 +2812,8 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D40" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -2843,22 +2824,22 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K40" s="3">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
@@ -2875,9 +2856,8 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="D41" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -2888,22 +2868,22 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="3">
         <v>4</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
@@ -2915,13 +2895,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -2932,22 +2912,22 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
         <v>124</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>125</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>126</v>
-      </c>
-      <c r="M42" t="s">
-        <v>127</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
@@ -2959,13 +2939,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -2976,22 +2956,22 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
         <v>128</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2</v>
-      </c>
-      <c r="L43" t="s">
-        <v>126</v>
-      </c>
-      <c r="M43" t="s">
-        <v>129</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="0"/>
@@ -3003,13 +2983,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -3020,22 +3000,22 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" s="3">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
@@ -3047,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -3064,22 +3044,22 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
         <v>132</v>
       </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s">
         <v>133</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>126</v>
-      </c>
-      <c r="M45" t="s">
-        <v>134</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="0"/>
@@ -3091,13 +3071,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -3108,22 +3088,22 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" s="3">
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
@@ -3135,13 +3115,13 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3152,22 +3132,22 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K47" s="3">
         <v>3</v>
       </c>
       <c r="L47" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" t="s">
         <v>137</v>
-      </c>
-      <c r="M47" t="s">
-        <v>138</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="0"/>
@@ -3179,13 +3159,13 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3196,22 +3176,22 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K48" s="3">
         <v>4</v>
       </c>
       <c r="L48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M48" t="s">
         <v>140</v>
-      </c>
-      <c r="M48" t="s">
-        <v>141</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
@@ -3223,13 +3203,13 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3240,22 +3220,22 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
         <v>143</v>
       </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>144</v>
-      </c>
-      <c r="M49" t="s">
-        <v>145</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
@@ -3267,13 +3247,13 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -3284,22 +3264,22 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K50" s="3">
         <v>2</v>
       </c>
       <c r="L50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" t="s">
         <v>140</v>
-      </c>
-      <c r="M50" t="s">
-        <v>141</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="0"/>
@@ -3311,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -3328,22 +3308,22 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K51" s="3">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
@@ -3355,13 +3335,13 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -3372,22 +3352,22 @@
       </c>
       <c r="G52" s="2"/>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I52">
         <v>4</v>
       </c>
       <c r="J52" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
         <v>150</v>
       </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>151</v>
-      </c>
-      <c r="M52" t="s">
-        <v>152</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
@@ -3399,13 +3379,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
@@ -3416,22 +3396,22 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53">
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K53" s="3">
         <v>2</v>
       </c>
       <c r="L53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M53" t="s">
         <v>151</v>
-      </c>
-      <c r="M53" t="s">
-        <v>152</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
@@ -3443,13 +3423,13 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -3460,22 +3440,22 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I54">
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K54" s="3">
         <v>3</v>
       </c>
       <c r="L54" t="s">
+        <v>150</v>
+      </c>
+      <c r="M54" t="s">
         <v>151</v>
-      </c>
-      <c r="M54" t="s">
-        <v>152</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
@@ -3549,21 +3529,21 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -3577,7 +3557,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
@@ -3591,7 +3571,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -3647,16 +3627,16 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
@@ -3675,7 +3655,7 @@
     </row>
     <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
